--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9991C6-9F7D-493F-A3E5-0D92E5EA0D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -291,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -670,14 +671,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -687,9 +691,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,7 +1221,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1264,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1388,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1454,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1517,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1615,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1674,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1739,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1782,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1857,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2043,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2109,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2167,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2233,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2289,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2364,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2407,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2473,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2529,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,25 +2625,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2654,25 +2655,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2979,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2989,7 +2990,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2997,34 +2998,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3036,16 +3037,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3054,16 +3055,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3074,16 +3075,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3091,7 +3092,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3104,24 +3105,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3165,7 +3166,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3175,12 +3176,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3202,7 +3203,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3222,7 +3223,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3242,7 +3243,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3262,7 +3263,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3282,7 +3283,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3302,7 +3303,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3322,7 +3323,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3342,7 +3343,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3362,7 +3363,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3382,7 +3383,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3402,7 +3403,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3422,7 +3423,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3446,7 +3447,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -3464,7 +3465,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3484,7 +3485,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3504,7 +3505,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3524,7 +3525,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3544,7 +3545,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3564,7 +3565,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="49"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3584,7 +3585,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3604,7 +3605,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3624,7 +3625,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3644,7 +3645,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3664,7 +3665,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3684,7 +3685,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3708,7 +3709,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>57</v>
       </c>
@@ -3726,7 +3727,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3746,7 +3747,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3766,7 +3767,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3786,7 +3787,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3806,7 +3807,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3826,7 +3827,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3846,7 +3847,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="49"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3866,7 +3867,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3886,7 +3887,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3906,7 +3907,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3926,7 +3927,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3946,7 +3947,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3970,7 +3971,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>65</v>
       </c>
@@ -3988,7 +3989,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4008,7 +4009,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4028,7 +4029,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4048,7 +4049,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4068,7 +4069,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4088,7 +4089,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4108,7 +4109,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4128,7 +4129,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4168,7 +4169,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4188,7 +4189,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4208,7 +4209,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4232,7 +4233,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>67</v>
       </c>
@@ -4250,7 +4251,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4270,7 +4271,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4290,7 +4291,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4310,7 +4311,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4330,7 +4331,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4350,7 +4351,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4370,7 +4371,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4390,7 +4391,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4410,7 +4411,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4430,7 +4431,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4450,7 +4451,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4470,7 +4471,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>80</v>
       </c>
@@ -4514,7 +4515,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4534,7 +4535,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4554,24 +4555,34 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="K78" s="49">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4586,8 +4597,10 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4602,8 +4615,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4618,8 +4633,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4634,8 +4651,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4650,8 +4669,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4666,8 +4687,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4682,8 +4705,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4698,7 +4723,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4714,7 +4739,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4730,7 +4755,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4746,7 +4771,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4762,7 +4787,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4778,7 +4803,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4794,7 +4819,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4810,7 +4835,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4826,7 +4851,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4842,7 +4867,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4858,7 +4883,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4874,7 +4899,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4890,7 +4915,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4906,7 +4931,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4922,7 +4947,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4938,7 +4963,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4954,7 +4979,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4970,7 +4995,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4986,7 +5011,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5002,7 +5027,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5018,7 +5043,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5034,7 +5059,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5050,7 +5075,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5066,7 +5091,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5082,7 +5107,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5098,7 +5123,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5114,7 +5139,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5130,7 +5155,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5146,7 +5171,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5162,7 +5187,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5178,7 +5203,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5194,7 +5219,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5210,7 +5235,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5226,7 +5251,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5242,7 +5267,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5258,7 +5283,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5274,7 +5299,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5290,7 +5315,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5306,7 +5331,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5322,7 +5347,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5338,7 +5363,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5354,7 +5379,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5370,7 +5395,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5386,7 +5411,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5402,7 +5427,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5418,7 +5443,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5434,7 +5459,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5450,7 +5475,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5466,7 +5491,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5482,7 +5507,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5498,7 +5523,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5514,7 +5539,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5530,7 +5555,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5546,7 +5571,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5562,7 +5587,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5578,7 +5603,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5594,7 +5619,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5610,7 +5635,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5626,7 +5651,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5642,7 +5667,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5658,7 +5683,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5674,7 +5699,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5690,7 +5715,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5706,7 +5731,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5722,7 +5747,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="15"/>
       <c r="C151" s="42"/>
@@ -5740,23 +5765,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5779,34 +5804,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="C60" sqref="C60"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5818,16 +5843,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5836,16 +5861,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5856,16 +5881,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5873,7 +5898,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5886,24 +5911,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5938,7 +5963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5962,7 +5987,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5984,7 +6009,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6008,7 +6033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6030,7 +6055,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -6052,7 +6077,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -6074,7 +6099,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -6098,7 +6123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -6120,7 +6145,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -6144,7 +6169,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6168,7 +6193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -6190,7 +6215,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -6214,7 +6239,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -6238,7 +6263,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -6258,7 +6283,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43497</v>
       </c>
@@ -6280,7 +6305,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>48</v>
@@ -6302,7 +6327,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6324,7 +6349,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>48</v>
@@ -6346,7 +6371,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43586</v>
       </c>
@@ -6370,7 +6395,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -6392,7 +6417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43709</v>
       </c>
@@ -6414,7 +6439,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43739</v>
       </c>
@@ -6438,7 +6463,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>48</v>
@@ -6460,7 +6485,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43770</v>
       </c>
@@ -6484,7 +6509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43800</v>
       </c>
@@ -6508,7 +6533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43831</v>
       </c>
@@ -6532,7 +6557,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>45</v>
@@ -6554,7 +6579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>61</v>
@@ -6574,7 +6599,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -6598,7 +6623,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -6622,7 +6647,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44075</v>
       </c>
@@ -6646,7 +6671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -6668,7 +6693,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44105</v>
       </c>
@@ -6692,7 +6717,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44197</v>
       </c>
@@ -6716,7 +6741,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44228</v>
       </c>
@@ -6738,7 +6763,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>48</v>
@@ -6760,7 +6785,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -6784,7 +6809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -6804,7 +6829,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -6826,7 +6851,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44621</v>
       </c>
@@ -6848,7 +6873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44682</v>
       </c>
@@ -6872,7 +6897,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44774</v>
       </c>
@@ -6894,7 +6919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>71</v>
@@ -6916,7 +6941,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -6938,7 +6963,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44805</v>
       </c>
@@ -6962,7 +6987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44835</v>
       </c>
@@ -6986,7 +7011,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>45</v>
@@ -7008,7 +7033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -7030,7 +7055,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44866</v>
       </c>
@@ -7054,7 +7079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -7076,7 +7101,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44896</v>
       </c>
@@ -7100,7 +7125,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>80</v>
       </c>
@@ -7118,7 +7143,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44971</v>
       </c>
@@ -7142,7 +7167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -7162,7 +7187,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7178,7 +7203,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7194,7 +7219,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7210,7 +7235,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7226,7 +7251,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7242,7 +7267,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7258,7 +7283,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7274,7 +7299,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7290,7 +7315,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7306,7 +7331,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7322,7 +7347,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7338,7 +7363,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7354,7 +7379,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7370,7 +7395,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7386,7 +7411,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7402,7 +7427,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7418,7 +7443,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7434,7 +7459,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7450,7 +7475,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7466,7 +7491,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7482,7 +7507,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7498,7 +7523,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7514,7 +7539,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7530,7 +7555,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7546,7 +7571,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7562,7 +7587,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7578,7 +7603,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7594,7 +7619,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7610,7 +7635,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7626,7 +7651,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7642,7 +7667,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7658,7 +7683,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7674,7 +7699,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7690,7 +7715,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7706,7 +7731,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7722,7 +7747,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7738,7 +7763,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7754,7 +7779,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7770,7 +7795,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7786,7 +7811,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7802,7 +7827,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7818,7 +7843,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7834,7 +7859,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7850,7 +7875,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7866,7 +7891,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7882,7 +7907,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7898,7 +7923,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7914,7 +7939,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7930,7 +7955,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7946,7 +7971,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7962,7 +7987,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7978,7 +8003,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7994,7 +8019,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8010,7 +8035,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8026,7 +8051,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8042,7 +8067,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8058,7 +8083,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8074,7 +8099,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8090,7 +8115,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8106,7 +8131,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8122,7 +8147,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8138,7 +8163,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8154,7 +8179,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8170,7 +8195,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8186,7 +8211,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8202,7 +8227,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8218,7 +8243,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8234,7 +8259,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8250,7 +8275,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8266,7 +8291,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8282,7 +8307,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8298,7 +8323,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8314,7 +8339,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8330,7 +8355,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -8361,10 +8386,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8387,28 +8412,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8421,7 +8446,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8450,7 +8475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>104.958</v>
       </c>
@@ -8474,17 +8499,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8505,7 +8530,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8532,7 +8557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8558,7 +8583,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8584,7 +8609,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8610,7 +8635,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8636,7 +8661,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8662,7 +8687,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8688,7 +8713,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8714,7 +8739,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8734,7 +8759,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8754,7 +8779,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8774,7 +8799,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8795,7 +8820,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8816,7 +8841,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8837,7 +8862,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8858,7 +8883,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8879,7 +8904,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8900,7 +8925,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8921,7 +8946,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8942,7 +8967,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8963,7 +8988,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8984,7 +9009,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9005,7 +9030,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9026,7 +9051,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9047,7 +9072,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9068,7 +9093,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9089,7 +9114,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9110,7 +9135,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9131,7 +9156,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9152,7 +9177,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9173,7 +9198,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9194,7 +9219,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9203,7 +9228,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9212,7 +9237,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9221,7 +9246,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9230,7 +9255,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9239,7 +9264,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9248,7 +9273,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9257,7 +9282,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9266,7 +9291,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9275,7 +9300,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9284,7 +9309,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9293,7 +9318,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9302,7 +9327,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9311,7 +9336,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9320,7 +9345,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9329,7 +9354,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9338,7 +9363,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9347,7 +9372,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9356,7 +9381,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9365,7 +9390,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9374,7 +9399,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9383,7 +9408,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9392,7 +9417,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9401,7 +9426,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9410,7 +9435,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9419,7 +9444,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9428,7 +9453,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9437,7 +9462,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9446,7 +9471,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9455,7 +9480,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9991C6-9F7D-493F-A3E5-0D92E5EA0D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93FDF48-FFDC-41F5-B05B-119507F23128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>12/16,22/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -671,17 +674,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -691,6 +691,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3005,9 +3008,9 @@
   <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,14 +3040,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3055,14 +3058,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3075,14 +3078,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3108,18 +3111,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5765,17 +5768,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5811,8 +5814,8 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="C60" sqref="C60"/>
+      <pane ySplit="3696" topLeftCell="A58"/>
+      <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -5843,14 +5846,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5861,14 +5864,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5881,14 +5884,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5914,18 +5917,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -8416,7 +8419,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8510,6 +8513,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8531,6 +8537,10 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>132.5</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93FDF48-FFDC-41F5-B05B-119507F23128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -291,11 +290,14 @@
   <si>
     <t>TOTAL LEAVE BALANCE</t>
   </si>
+  <si>
+    <t>BIR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -674,14 +676,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -691,9 +696,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,7 +1226,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1269,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1333,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1393,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1459,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1522,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1620,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1679,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1744,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1787,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1862,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2048,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2114,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2172,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2238,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2294,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2369,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2412,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2478,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2534,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,25 +2630,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2658,25 +2660,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2983,7 +2985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2993,7 +2995,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3001,34 +3003,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3040,16 +3042,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3058,16 +3060,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3078,16 +3080,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3095,7 +3099,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3108,24 +3112,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3169,7 +3173,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3179,12 +3183,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3206,7 +3210,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3226,7 +3230,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3246,7 +3250,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3266,7 +3270,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3286,7 +3290,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3306,7 +3310,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3326,7 +3330,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3346,7 +3350,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3366,7 +3370,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3386,7 +3390,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3406,7 +3410,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3426,7 +3430,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3450,7 +3454,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -3468,7 +3472,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3488,7 +3492,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3508,7 +3512,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3528,7 +3532,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3548,7 +3552,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3568,7 +3572,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="49"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3588,7 +3592,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3608,7 +3612,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3628,7 +3632,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3648,7 +3652,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3668,7 +3672,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3688,7 +3692,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3712,7 +3716,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>57</v>
       </c>
@@ -3730,7 +3734,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3750,7 +3754,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3770,7 +3774,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3790,7 +3794,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3810,7 +3814,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3830,7 +3834,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="49"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3870,7 +3874,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3910,7 +3914,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3930,7 +3934,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3950,7 +3954,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3974,7 +3978,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>65</v>
       </c>
@@ -3992,7 +3996,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4012,7 +4016,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4032,7 +4036,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4052,7 +4056,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4072,7 +4076,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4092,7 +4096,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4112,7 +4116,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4132,7 +4136,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4152,7 +4156,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4172,7 +4176,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4192,7 +4196,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4212,7 +4216,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4236,7 +4240,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>67</v>
       </c>
@@ -4254,7 +4258,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4274,7 +4278,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4294,7 +4298,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4314,7 +4318,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4334,7 +4338,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4354,7 +4358,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4374,7 +4378,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4394,7 +4398,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4414,7 +4418,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4434,7 +4438,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4454,7 +4458,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4474,7 +4478,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4500,7 +4504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>80</v>
       </c>
@@ -4518,7 +4522,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4538,7 +4542,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4558,7 +4562,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4582,25 +4586,27 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
@@ -4618,7 +4624,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -4636,7 +4642,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45108</v>
       </c>
@@ -4654,7 +4660,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45139</v>
       </c>
@@ -4672,7 +4678,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45170</v>
       </c>
@@ -4690,7 +4696,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45200</v>
       </c>
@@ -4708,7 +4714,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45231</v>
       </c>
@@ -4726,7 +4732,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4742,7 +4748,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4758,7 +4764,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4774,7 +4780,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4790,7 +4796,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4806,7 +4812,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4822,7 +4828,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4838,7 +4844,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4854,7 +4860,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4870,7 +4876,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4886,7 +4892,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4902,7 +4908,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4918,7 +4924,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4934,7 +4940,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4950,7 +4956,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4966,7 +4972,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4982,7 +4988,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4998,7 +5004,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5014,7 +5020,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5030,7 +5036,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5046,7 +5052,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5062,7 +5068,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5078,7 +5084,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5094,7 +5100,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5110,7 +5116,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5126,7 +5132,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5142,7 +5148,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5158,7 +5164,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5174,7 +5180,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5190,7 +5196,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5206,7 +5212,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5222,7 +5228,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5238,7 +5244,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5254,7 +5260,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5270,7 +5276,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5286,7 +5292,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5302,7 +5308,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5318,7 +5324,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5334,7 +5340,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5350,7 +5356,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5366,7 +5372,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5382,7 +5388,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5398,7 +5404,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5414,7 +5420,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5430,7 +5436,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5446,7 +5452,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5462,7 +5468,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5478,7 +5484,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5494,7 +5500,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5510,7 +5516,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5526,7 +5532,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5542,7 +5548,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5558,7 +5564,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5574,7 +5580,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5590,7 +5596,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5606,7 +5612,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5622,7 +5628,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5638,7 +5644,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5654,7 +5660,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5670,7 +5676,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5686,7 +5692,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5702,7 +5708,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5718,7 +5724,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5734,7 +5740,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5750,7 +5756,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="15"/>
       <c r="C151" s="42"/>
@@ -5768,23 +5774,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5807,34 +5813,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5846,16 +5852,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5864,16 +5870,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5884,16 +5890,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5901,7 +5907,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5914,24 +5920,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5966,7 +5972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5985,12 +5991,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.542</v>
+        <v>140.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -6012,7 +6018,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6036,7 +6042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6058,7 +6064,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -6080,7 +6086,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -6148,7 +6154,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6196,7 +6202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -6218,7 +6224,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -6286,7 +6292,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43497</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>48</v>
@@ -6330,7 +6336,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>48</v>
@@ -6374,7 +6380,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43586</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -6420,7 +6426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43709</v>
       </c>
@@ -6442,7 +6448,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43739</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>48</v>
@@ -6488,7 +6494,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43770</v>
       </c>
@@ -6512,7 +6518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43800</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43831</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>45</v>
@@ -6582,7 +6588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>61</v>
@@ -6602,7 +6608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -6626,7 +6632,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -6650,7 +6656,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44075</v>
       </c>
@@ -6674,7 +6680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -6696,7 +6702,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44105</v>
       </c>
@@ -6720,7 +6726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44197</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44228</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>48</v>
@@ -6788,7 +6794,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -6832,7 +6838,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -6854,7 +6860,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44621</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44682</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44774</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>71</v>
@@ -6944,7 +6950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -6966,7 +6972,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44805</v>
       </c>
@@ -6990,7 +6996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44835</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>45</v>
@@ -7036,7 +7042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -7058,7 +7064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44866</v>
       </c>
@@ -7082,7 +7088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -7104,7 +7110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44896</v>
       </c>
@@ -7128,7 +7134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>80</v>
       </c>
@@ -7146,7 +7152,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44971</v>
       </c>
@@ -7170,7 +7176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -7190,9 +7196,13 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
@@ -7201,12 +7211,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="39">
+        <v>1</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="49">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7222,7 +7236,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7238,7 +7252,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7254,7 +7268,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7270,7 +7284,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7286,7 +7300,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7302,7 +7316,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7318,7 +7332,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7334,7 +7348,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7350,7 +7364,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7366,7 +7380,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7382,7 +7396,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7398,7 +7412,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7414,7 +7428,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7430,7 +7444,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7446,7 +7460,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7462,7 +7476,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7478,7 +7492,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7494,7 +7508,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7510,7 +7524,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7526,7 +7540,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7542,7 +7556,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7558,7 +7572,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7574,7 +7588,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7590,7 +7604,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7606,7 +7620,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7622,7 +7636,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7638,7 +7652,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7654,7 +7668,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7670,7 +7684,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7686,7 +7700,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7702,7 +7716,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7718,7 +7732,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7734,7 +7748,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7750,7 +7764,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7766,7 +7780,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7782,7 +7796,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7798,7 +7812,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7814,7 +7828,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7830,7 +7844,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7846,7 +7860,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7862,7 +7876,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7878,7 +7892,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7894,7 +7908,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7910,7 +7924,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7926,7 +7940,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7942,7 +7956,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7958,7 +7972,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7974,7 +7988,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7990,7 +8004,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8006,7 +8020,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8022,7 +8036,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8038,7 +8052,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8054,7 +8068,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8070,7 +8084,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8086,7 +8100,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8102,7 +8116,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8118,7 +8132,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8134,7 +8148,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8150,7 +8164,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8166,7 +8180,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8182,7 +8196,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8198,7 +8212,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8214,7 +8228,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8230,7 +8244,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8246,7 +8260,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8262,7 +8276,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8278,7 +8292,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8294,7 +8308,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8310,7 +8324,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8326,7 +8340,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8342,7 +8356,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8358,7 +8372,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -8389,10 +8403,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8415,28 +8429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8449,7 +8463,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8478,7 +8492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>104.958</v>
       </c>
@@ -8502,17 +8516,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -8536,10 +8550,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>132.5</v>
+        <v>135</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -8567,7 +8581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8593,7 +8607,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8619,7 +8633,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8645,7 +8659,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8671,7 +8685,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8697,7 +8711,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8723,7 +8737,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8749,7 +8763,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8769,7 +8783,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8789,7 +8803,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8809,7 +8823,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8830,7 +8844,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8851,7 +8865,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8872,7 +8886,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8893,7 +8907,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8914,7 +8928,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8935,7 +8949,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8956,7 +8970,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8977,7 +8991,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8998,7 +9012,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9019,7 +9033,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9040,7 +9054,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9061,7 +9075,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9082,7 +9096,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9103,7 +9117,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9124,7 +9138,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9145,7 +9159,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9166,7 +9180,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9187,7 +9201,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9208,7 +9222,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9229,7 +9243,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9238,7 +9252,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9247,7 +9261,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9256,7 +9270,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9265,7 +9279,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9274,7 +9288,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9283,7 +9297,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9292,7 +9306,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9301,7 +9315,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9310,7 +9324,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9319,7 +9333,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9328,7 +9342,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9337,7 +9351,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9346,7 +9360,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9355,7 +9369,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9364,7 +9378,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9373,7 +9387,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9382,7 +9396,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9391,7 +9405,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9400,7 +9414,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9409,7 +9423,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9418,7 +9432,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9427,7 +9441,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9436,7 +9450,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9445,7 +9459,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9454,7 +9468,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9463,7 +9477,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9472,7 +9486,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9481,7 +9495,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9490,7 +9504,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>BIR</t>
+  </si>
+  <si>
+    <t>5/8,9/2023</t>
   </si>
 </sst>
 </file>
@@ -676,17 +679,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -696,6 +696,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,7 +1229,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1272,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1336,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1396,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1462,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1525,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1623,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1682,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1747,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1790,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1865,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2051,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2117,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2175,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2241,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2297,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2372,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2415,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2481,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2537,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,14 +3045,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3060,14 +3063,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3080,16 +3083,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3115,18 +3118,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5774,17 +5777,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5820,9 +5823,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="3690" topLeftCell="A58"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,14 +5855,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5870,14 +5873,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5890,14 +5893,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5923,18 +5928,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5991,7 +5996,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.542</v>
+        <v>138.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7221,8 +7226,12 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -7231,10 +7240,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>2</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,6 +295,21 @@
   </si>
   <si>
     <t>5/8,9/2023</t>
+  </si>
+  <si>
+    <t>5/15,19/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>06/13-16/2023</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>05/24,30/2023</t>
   </si>
 </sst>
 </file>
@@ -679,14 +694,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -696,9 +714,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,7 +1244,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1287,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1351,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1411,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1477,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1540,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1638,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1697,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1762,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1805,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1880,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2066,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2132,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2190,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2256,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2312,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2387,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2430,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2496,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2552,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2648,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K152" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3010,12 +3025,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K151"/>
+  <dimension ref="A2:K152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,14 +3060,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3063,14 +3078,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3083,16 +3098,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3118,18 +3133,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3176,7 +3191,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3186,7 +3201,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4614,13 +4629,15 @@
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4646,18 +4663,13 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G82" s="13"/>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
@@ -4665,7 +4677,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4683,7 +4695,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4701,7 +4713,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4719,7 +4731,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4736,7 +4748,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45231</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5760,34 +5774,50 @@
       <c r="K150" s="20"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="43"/>
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H151" s="43"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="15"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5822,10 +5852,10 @@
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5855,14 +5885,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5873,14 +5903,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5893,16 +5923,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5928,18 +5958,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5986,7 +6016,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.957999999999998</v>
+        <v>46.957999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5996,7 +6026,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138.542</v>
+        <v>136.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7251,7 +7281,9 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
@@ -7260,16 +7292,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="39"/>
+      <c r="H65" s="39">
+        <v>2</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>2</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13" t="str">
@@ -7279,13 +7321,19 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>4</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
@@ -7295,7 +7343,9 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
@@ -8566,7 +8616,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>135</v>
+        <v>137.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7455D74-4914-45D4-BE1E-FBB5F2D48CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -311,11 +312,14 @@
   <si>
     <t>05/24,30/2023</t>
   </si>
+  <si>
+    <t>6/19,27/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -694,17 +698,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -714,6 +715,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,7 +1248,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1291,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1415,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1481,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1544,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1642,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1701,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1766,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1809,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1884,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2070,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2136,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2194,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2260,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2316,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2391,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2434,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2500,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2556,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2635,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2648,25 +2652,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K152" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2678,25 +2682,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3003,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3013,7 +3017,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3021,34 +3025,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K152"/>
+  <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3060,16 +3064,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3078,16 +3082,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3098,18 +3102,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3117,7 +3121,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3130,24 +3134,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3191,7 +3195,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3201,12 +3205,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3228,7 +3232,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3248,7 +3252,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3268,7 +3272,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3288,7 +3292,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3308,7 +3312,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3328,7 +3332,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3348,7 +3352,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3368,7 +3372,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3408,7 +3412,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3428,7 +3432,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3448,7 +3452,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3472,7 +3476,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -3490,7 +3494,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3510,7 +3514,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3550,7 +3554,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3570,7 +3574,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3590,7 +3594,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="49"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3610,7 +3614,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3630,7 +3634,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3650,7 +3654,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3670,7 +3674,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3690,7 +3694,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3734,7 +3738,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>57</v>
       </c>
@@ -3752,7 +3756,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3772,7 +3776,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3792,7 +3796,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3812,7 +3816,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3852,7 +3856,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3872,7 +3876,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="49"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3892,7 +3896,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3912,7 +3916,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3932,7 +3936,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3952,7 +3956,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3972,7 +3976,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3996,7 +4000,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>65</v>
       </c>
@@ -4014,7 +4018,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4034,7 +4038,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4054,7 +4058,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4074,7 +4078,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4094,7 +4098,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4114,7 +4118,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4134,7 +4138,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4154,7 +4158,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4174,7 +4178,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4194,7 +4198,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4214,7 +4218,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4234,7 +4238,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4258,7 +4262,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>67</v>
       </c>
@@ -4276,7 +4280,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4296,7 +4300,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4316,7 +4320,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4336,7 +4340,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4356,7 +4360,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4376,7 +4380,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4396,7 +4400,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4416,7 +4420,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4436,7 +4440,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4456,7 +4460,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4476,7 +4480,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4496,7 +4500,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>80</v>
       </c>
@@ -4540,9 +4544,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4560,9 +4564,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4580,9 +4584,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>47</v>
@@ -4604,9 +4608,9 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4624,9 +4628,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4644,40 +4648,47 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45108</v>
+        <v>45169</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4693,9 +4704,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45139</v>
+        <v>45199</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4711,9 +4722,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45170</v>
+        <v>45230</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4729,9 +4740,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45200</v>
+        <v>45260</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4747,10 +4758,8 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>45231</v>
-      </c>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4765,7 +4774,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4781,7 +4790,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4797,7 +4806,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4813,7 +4822,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4829,7 +4838,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4845,7 +4854,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4861,7 +4870,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4877,7 +4886,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4893,7 +4902,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4909,7 +4918,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4925,7 +4934,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4941,7 +4950,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4957,7 +4966,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4973,7 +4982,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4989,7 +4998,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5005,7 +5014,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5021,7 +5030,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5037,7 +5046,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5053,7 +5062,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5069,7 +5078,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5085,7 +5094,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5101,7 +5110,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5117,7 +5126,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5133,7 +5142,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5149,7 +5158,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5165,7 +5174,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5181,7 +5190,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5197,7 +5206,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5213,7 +5222,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5229,7 +5238,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5245,7 +5254,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5261,7 +5270,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5277,7 +5286,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5293,7 +5302,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5309,7 +5318,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5325,7 +5334,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5341,7 +5350,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5357,7 +5366,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5373,7 +5382,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5389,7 +5398,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5405,7 +5414,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5421,7 +5430,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5437,7 +5446,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5453,7 +5462,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5469,7 +5478,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5485,7 +5494,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5501,7 +5510,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5517,7 +5526,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5533,7 +5542,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5549,7 +5558,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5565,7 +5574,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5581,7 +5590,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5597,7 +5606,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5613,7 +5622,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5629,7 +5638,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5645,7 +5654,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5661,7 +5670,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5677,7 +5686,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5693,7 +5702,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5709,7 +5718,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5725,7 +5734,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5741,7 +5750,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5757,7 +5766,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5773,57 +5782,41 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="39"/>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="41"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="43"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H151" s="39"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="43"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="43"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="43"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="15"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5846,34 +5839,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A52" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5885,16 +5878,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5903,16 +5896,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5923,18 +5916,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5942,7 +5935,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5955,24 +5948,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6007,7 +6000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6026,12 +6019,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>136.542</v>
+        <v>134.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -6053,7 +6046,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6077,7 +6070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6099,7 +6092,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -6121,7 +6114,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -6143,7 +6136,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -6167,7 +6160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -6189,7 +6182,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -6213,7 +6206,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6237,7 +6230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -6259,7 +6252,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -6283,7 +6276,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -6307,7 +6300,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -6327,7 +6320,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43497</v>
       </c>
@@ -6349,7 +6342,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>48</v>
@@ -6371,7 +6364,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6393,7 +6386,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>48</v>
@@ -6415,7 +6408,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43586</v>
       </c>
@@ -6439,7 +6432,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -6461,7 +6454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43709</v>
       </c>
@@ -6483,7 +6476,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43739</v>
       </c>
@@ -6507,7 +6500,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>48</v>
@@ -6529,7 +6522,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43770</v>
       </c>
@@ -6553,7 +6546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43800</v>
       </c>
@@ -6577,7 +6570,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43831</v>
       </c>
@@ -6601,7 +6594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>45</v>
@@ -6623,7 +6616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>61</v>
@@ -6643,7 +6636,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -6667,7 +6660,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -6691,7 +6684,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44075</v>
       </c>
@@ -6715,7 +6708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -6737,7 +6730,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44105</v>
       </c>
@@ -6761,7 +6754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44197</v>
       </c>
@@ -6785,7 +6778,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44228</v>
       </c>
@@ -6807,7 +6800,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>48</v>
@@ -6829,7 +6822,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -6853,7 +6846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -6873,7 +6866,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -6895,7 +6888,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44621</v>
       </c>
@@ -6917,7 +6910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44682</v>
       </c>
@@ -6941,7 +6934,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44774</v>
       </c>
@@ -6963,7 +6956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>71</v>
@@ -6985,7 +6978,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -7007,7 +7000,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44805</v>
       </c>
@@ -7031,7 +7024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44835</v>
       </c>
@@ -7055,7 +7048,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>45</v>
@@ -7077,7 +7070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -7099,7 +7092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44866</v>
       </c>
@@ -7123,7 +7116,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -7145,7 +7138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44896</v>
       </c>
@@ -7169,7 +7162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>80</v>
       </c>
@@ -7187,7 +7180,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44971</v>
       </c>
@@ -7211,7 +7204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -7231,7 +7224,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>45017</v>
       </c>
@@ -7255,7 +7248,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>45047</v>
       </c>
@@ -7279,7 +7272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>45</v>
@@ -7301,7 +7294,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>45078</v>
       </c>
@@ -7325,7 +7318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>87</v>
@@ -7347,9 +7340,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
@@ -7358,12 +7353,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="39"/>
+      <c r="H68" s="39">
+        <v>2</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7379,7 +7378,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7395,7 +7394,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7411,7 +7410,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7427,7 +7426,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7443,7 +7442,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7459,7 +7458,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7475,7 +7474,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7491,7 +7490,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7507,7 +7506,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7523,7 +7522,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7539,7 +7538,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7555,7 +7554,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7571,7 +7570,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7587,7 +7586,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7603,7 +7602,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7619,7 +7618,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7635,7 +7634,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7651,7 +7650,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7667,7 +7666,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7683,7 +7682,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7699,7 +7698,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7715,7 +7714,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7731,7 +7730,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7747,7 +7746,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7763,7 +7762,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7779,7 +7778,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7795,7 +7794,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7811,7 +7810,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7827,7 +7826,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7843,7 +7842,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7859,7 +7858,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7875,7 +7874,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7891,7 +7890,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7907,7 +7906,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7923,7 +7922,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7939,7 +7938,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7955,7 +7954,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7971,7 +7970,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7987,7 +7986,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8003,7 +8002,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8019,7 +8018,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8035,7 +8034,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8051,7 +8050,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8067,7 +8066,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8083,7 +8082,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8099,7 +8098,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8115,7 +8114,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8131,7 +8130,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8147,7 +8146,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8163,7 +8162,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8179,7 +8178,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8195,7 +8194,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8211,7 +8210,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8227,7 +8226,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8243,7 +8242,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8259,7 +8258,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8275,7 +8274,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8291,7 +8290,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8307,7 +8306,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8323,7 +8322,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8339,7 +8338,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8355,7 +8354,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8371,7 +8370,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8387,7 +8386,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8403,7 +8402,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8419,7 +8418,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8435,7 +8434,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -8466,10 +8465,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8492,28 +8491,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8526,7 +8525,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>104.958</v>
       </c>
@@ -8579,17 +8578,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -8613,10 +8612,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>137.5</v>
+        <v>140</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -8644,7 +8643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8748,7 +8747,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8846,7 +8845,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8866,7 +8865,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8886,7 +8885,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8991,7 +8990,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9012,7 +9011,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9075,7 +9074,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9096,7 +9095,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9117,7 +9116,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9159,7 +9158,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9243,7 +9242,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9285,7 +9284,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9315,7 +9314,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9324,7 +9323,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9333,7 +9332,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9342,7 +9341,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9351,7 +9350,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9360,7 +9359,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9369,7 +9368,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9378,7 +9377,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9387,7 +9386,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9396,7 +9395,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9405,7 +9404,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9414,7 +9413,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9423,7 +9422,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9432,7 +9431,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9441,7 +9440,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9450,7 +9449,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9459,7 +9458,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9468,7 +9467,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9477,7 +9476,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9486,7 +9485,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9495,7 +9494,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9504,7 +9503,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9513,7 +9512,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9522,7 +9521,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9531,7 +9530,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9540,7 +9539,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9549,7 +9548,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9558,7 +9557,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9567,7 +9566,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7455D74-4914-45D4-BE1E-FBB5F2D48CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -315,11 +314,20 @@
   <si>
     <t>6/19,27/2023</t>
   </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/12-14/2023</t>
+  </si>
+  <si>
+    <t>7/20,21/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1248,7 +1256,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1299,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1363,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1423,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1489,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1552,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1650,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1709,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1774,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1817,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1892,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2078,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2144,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2202,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2268,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2324,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2399,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2442,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2508,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2564,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2643,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2652,25 +2660,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2682,25 +2690,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3007,7 +3015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3017,7 +3025,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3025,34 +3033,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:A86"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +3081,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3091,7 +3099,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3113,7 +3121,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3121,7 +3129,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3134,7 +3142,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3151,7 +3159,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3210,7 +3218,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3232,7 +3240,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3252,7 +3260,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3272,7 +3280,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3292,7 +3300,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3312,7 +3320,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3332,7 +3340,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3352,7 +3360,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3372,7 +3380,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3392,7 +3400,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3412,7 +3420,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3432,7 +3440,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3452,7 +3460,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3476,7 +3484,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -3494,7 +3502,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3514,7 +3522,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3534,7 +3542,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3554,7 +3562,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3574,7 +3582,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3594,7 +3602,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="49"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3614,7 +3622,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3634,7 +3642,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3654,7 +3662,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3674,7 +3682,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3694,7 +3702,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3714,7 +3722,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3738,7 +3746,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>57</v>
       </c>
@@ -3756,7 +3764,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3776,7 +3784,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3796,7 +3804,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3816,7 +3824,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3836,7 +3844,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3856,7 +3864,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3876,7 +3884,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="49"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3896,7 +3904,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3916,7 +3924,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3936,7 +3944,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3956,7 +3964,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3976,7 +3984,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4000,7 +4008,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>65</v>
       </c>
@@ -4018,7 +4026,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4038,7 +4046,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4058,7 +4066,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4078,7 +4086,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4098,7 +4106,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4118,7 +4126,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4138,7 +4146,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4158,7 +4166,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4178,7 +4186,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4198,7 +4206,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4218,7 +4226,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4238,7 +4246,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4262,7 +4270,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>67</v>
       </c>
@@ -4280,7 +4288,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4300,7 +4308,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4320,7 +4328,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4340,7 +4348,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4360,7 +4368,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4380,7 +4388,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4400,7 +4408,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4420,7 +4428,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4440,7 +4448,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4460,7 +4468,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4480,7 +4488,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4500,7 +4508,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4526,7 +4534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>80</v>
       </c>
@@ -4544,7 +4552,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4564,7 +4572,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4584,7 +4592,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4628,7 +4636,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4648,7 +4656,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4668,7 +4676,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
@@ -4686,7 +4694,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -4704,7 +4712,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -4722,7 +4730,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -4740,7 +4748,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -4758,7 +4766,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4774,7 +4782,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4790,7 +4798,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4806,7 +4814,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4822,7 +4830,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4838,7 +4846,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4854,7 +4862,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4870,7 +4878,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4886,7 +4894,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4902,7 +4910,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4918,7 +4926,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4934,7 +4942,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4950,7 +4958,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4966,7 +4974,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4982,7 +4990,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4998,7 +5006,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5014,7 +5022,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5030,7 +5038,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5046,7 +5054,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5062,7 +5070,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5078,7 +5086,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5094,7 +5102,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5110,7 +5118,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5126,7 +5134,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5142,7 +5150,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5158,7 +5166,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5174,7 +5182,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5190,7 +5198,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5206,7 +5214,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5222,7 +5230,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5238,7 +5246,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5254,7 +5262,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5270,7 +5278,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5286,7 +5294,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5302,7 +5310,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5318,7 +5326,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5334,7 +5342,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5350,7 +5358,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5366,7 +5374,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5382,7 +5390,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5398,7 +5406,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5414,7 +5422,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5430,7 +5438,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5446,7 +5454,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5462,7 +5470,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5478,7 +5486,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5494,7 +5502,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5510,7 +5518,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5526,7 +5534,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5542,7 +5550,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5558,7 +5566,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5574,7 +5582,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5590,7 +5598,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5606,7 +5614,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5622,7 +5630,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5638,7 +5646,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5654,7 +5662,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5670,7 +5678,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5686,7 +5694,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5702,7 +5710,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5718,7 +5726,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5734,7 +5742,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5750,7 +5758,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5766,7 +5774,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5782,7 +5790,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="15"/>
       <c r="C151" s="42"/>
@@ -5813,10 +5821,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5839,34 +5847,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A61" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5887,7 +5895,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5905,7 +5913,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5927,7 +5935,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5935,7 +5943,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5948,7 +5956,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -5965,7 +5973,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6000,7 +6008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6019,12 +6027,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.542</v>
+        <v>129.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -6046,7 +6054,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6070,7 +6078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6092,7 +6100,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -6114,7 +6122,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -6136,7 +6144,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -6160,7 +6168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -6182,7 +6190,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -6206,7 +6214,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -6252,7 +6260,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -6276,7 +6284,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -6300,7 +6308,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -6320,7 +6328,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43497</v>
       </c>
@@ -6342,7 +6350,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>48</v>
@@ -6364,7 +6372,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6386,7 +6394,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>48</v>
@@ -6408,7 +6416,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43586</v>
       </c>
@@ -6432,7 +6440,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -6454,7 +6462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43709</v>
       </c>
@@ -6476,7 +6484,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43739</v>
       </c>
@@ -6500,7 +6508,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>48</v>
@@ -6522,7 +6530,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43770</v>
       </c>
@@ -6546,7 +6554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43800</v>
       </c>
@@ -6570,7 +6578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43831</v>
       </c>
@@ -6594,7 +6602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>45</v>
@@ -6616,7 +6624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>61</v>
@@ -6636,7 +6644,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -6660,7 +6668,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -6684,7 +6692,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44075</v>
       </c>
@@ -6708,7 +6716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -6730,7 +6738,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44105</v>
       </c>
@@ -6754,7 +6762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44197</v>
       </c>
@@ -6778,7 +6786,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44228</v>
       </c>
@@ -6800,7 +6808,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>48</v>
@@ -6822,7 +6830,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -6846,7 +6854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -6866,7 +6874,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -6888,7 +6896,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44621</v>
       </c>
@@ -6910,7 +6918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44682</v>
       </c>
@@ -6934,7 +6942,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44774</v>
       </c>
@@ -6956,7 +6964,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>71</v>
@@ -6978,7 +6986,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -7000,7 +7008,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44805</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44835</v>
       </c>
@@ -7048,7 +7056,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>45</v>
@@ -7070,7 +7078,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -7092,7 +7100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44866</v>
       </c>
@@ -7116,7 +7124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -7138,7 +7146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44896</v>
       </c>
@@ -7162,7 +7170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>80</v>
       </c>
@@ -7180,7 +7188,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44971</v>
       </c>
@@ -7204,7 +7212,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -7224,7 +7232,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>45017</v>
       </c>
@@ -7248,7 +7256,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45047</v>
       </c>
@@ -7272,7 +7280,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>45</v>
@@ -7294,7 +7302,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45078</v>
       </c>
@@ -7318,7 +7326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>87</v>
@@ -7340,7 +7348,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>45</v>
@@ -7362,9 +7370,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" s="20"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
@@ -7373,14 +7385,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H69" s="39"/>
+      <c r="H69" s="39">
+        <v>3</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
@@ -7389,12 +7407,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="39"/>
+      <c r="H70" s="39">
+        <v>2</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7410,7 +7432,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7426,7 +7448,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7442,7 +7464,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7458,7 +7480,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7474,7 +7496,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7490,7 +7512,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7506,7 +7528,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7522,7 +7544,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7538,7 +7560,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7554,7 +7576,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7570,7 +7592,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7586,7 +7608,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7602,7 +7624,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7618,7 +7640,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7634,7 +7656,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7650,7 +7672,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7666,7 +7688,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7682,7 +7704,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7698,7 +7720,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7714,7 +7736,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7730,7 +7752,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7746,7 +7768,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7762,7 +7784,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7778,7 +7800,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7794,7 +7816,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7810,7 +7832,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7826,7 +7848,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7842,7 +7864,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7858,7 +7880,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7874,7 +7896,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7890,7 +7912,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7906,7 +7928,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7922,7 +7944,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7938,7 +7960,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7954,7 +7976,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7970,7 +7992,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7986,7 +8008,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8002,7 +8024,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8018,7 +8040,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8034,7 +8056,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8050,7 +8072,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8066,7 +8088,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8082,7 +8104,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8098,7 +8120,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8114,7 +8136,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8130,7 +8152,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8146,7 +8168,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8162,7 +8184,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8178,7 +8200,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8194,7 +8216,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8210,7 +8232,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8226,7 +8248,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8242,7 +8264,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8258,7 +8280,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8274,7 +8296,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8290,7 +8312,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8306,7 +8328,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8322,7 +8344,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8338,7 +8360,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8354,7 +8376,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8370,7 +8392,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8386,7 +8408,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8402,7 +8424,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8418,7 +8440,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8434,7 +8456,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -8465,10 +8487,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8491,28 +8513,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8525,7 +8547,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8554,7 +8576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>104.958</v>
       </c>
@@ -8578,17 +8600,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -8612,7 +8634,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
         <v>140</v>
@@ -8643,7 +8665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8669,7 +8691,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8695,7 +8717,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8721,7 +8743,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8747,7 +8769,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8773,7 +8795,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8799,7 +8821,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8825,7 +8847,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8845,7 +8867,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8865,7 +8887,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8885,7 +8907,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8906,7 +8928,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8927,7 +8949,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8948,7 +8970,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8969,7 +8991,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8990,7 +9012,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9011,7 +9033,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9032,7 +9054,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9053,7 +9075,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9074,7 +9096,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9095,7 +9117,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9116,7 +9138,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9137,7 +9159,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9158,7 +9180,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9179,7 +9201,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9200,7 +9222,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9221,7 +9243,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9242,7 +9264,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9263,7 +9285,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9284,7 +9306,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9305,7 +9327,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9314,7 +9336,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9323,7 +9345,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9332,7 +9354,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9341,7 +9363,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9350,7 +9372,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9359,7 +9381,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9368,7 +9390,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9377,7 +9399,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9386,7 +9408,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9395,7 +9417,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9404,7 +9426,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9413,7 +9435,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9422,7 +9444,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9431,7 +9453,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9440,7 +9462,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9449,7 +9471,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9458,7 +9480,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9467,7 +9489,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9476,7 +9498,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9485,7 +9507,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9494,7 +9516,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9503,7 +9525,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9512,7 +9534,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9521,7 +9543,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9530,7 +9552,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9539,7 +9561,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9548,7 +9570,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9557,7 +9579,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9566,7 +9588,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -322,6 +322,21 @@
   </si>
   <si>
     <t>7/20,21/2023</t>
+  </si>
+  <si>
+    <t>8/1,2/2023</t>
+  </si>
+  <si>
+    <t>8/9,17,18/2023</t>
+  </si>
+  <si>
+    <t>8/31, 9/1/2023</t>
+  </si>
+  <si>
+    <t>9/6,12/2023</t>
+  </si>
+  <si>
+    <t>9/19,21/2023</t>
   </si>
 </sst>
 </file>
@@ -3042,7 +3057,7 @@
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,7 +3218,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3213,7 +3228,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4681,13 +4696,15 @@
         <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4699,13 +4716,15 @@
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4717,13 +4736,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5854,9 +5875,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,7 +6048,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.542</v>
+        <v>118.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7417,8 +7438,12 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
@@ -7427,14 +7452,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H71" s="39"/>
+      <c r="H71" s="39">
+        <v>2</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
@@ -7443,14 +7474,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H72" s="39"/>
+      <c r="H72" s="39">
+        <v>3</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
@@ -7459,14 +7496,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="39">
+        <v>2</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
@@ -7475,14 +7520,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H74" s="39"/>
+      <c r="H74" s="39">
+        <v>2</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
@@ -7491,10 +7542,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H75" s="39"/>
+      <c r="H75" s="39">
+        <v>2</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
@@ -8637,7 +8692,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>140</v>
+        <v>147.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>12/4,5/2023</t>
+  </si>
+  <si>
+    <t>12/19-21/2023</t>
+  </si>
+  <si>
+    <t>12/22,27/2023</t>
   </si>
 </sst>
 </file>
@@ -3081,7 +3087,7 @@
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,7 +3248,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.75</v>
+        <v>65</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3252,7 +3258,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4820,13 +4826,15 @@
         <v>45291</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5943,9 +5951,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6116,7 +6124,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.542</v>
+        <v>101.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7781,7 +7789,9 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -7790,14 +7800,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>3</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -7806,10 +7822,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="39">
+        <v>2</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
@@ -8808,7 +8828,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>152.5</v>
+        <v>155</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/NEW HR/SUMAGUI, LORENA.xlsx
+++ b/NEW HR/SUMAGUI, LORENA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BBB241-4BF1-4295-813F-64315DC12B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -372,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -751,17 +752,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -771,6 +769,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,7 +1302,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1345,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1409,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1469,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1535,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1598,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1696,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1755,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1820,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1863,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1938,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2124,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2190,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2248,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2314,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2370,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2445,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2488,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2554,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2610,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2689,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2705,25 +2706,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K152" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K152" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2735,25 +2736,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3060,7 +3061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3070,7 +3071,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3078,34 +3079,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K152"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="K6" sqref="K6"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3117,16 +3118,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3135,16 +3136,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3155,18 +3156,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3174,7 +3175,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3187,24 +3188,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3248,7 +3249,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>65</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3258,12 +3259,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>90</v>
+        <v>90.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3285,7 +3286,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3325,7 +3326,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3345,7 +3346,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3405,7 +3406,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3425,7 +3426,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3445,7 +3446,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3465,7 +3466,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3485,7 +3486,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3505,7 +3506,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -3529,7 +3530,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -3547,7 +3548,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3567,7 +3568,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3587,7 +3588,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3607,7 +3608,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3647,7 +3648,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="49"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3667,7 +3668,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3687,7 +3688,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3707,7 +3708,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3727,7 +3728,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3747,7 +3748,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3767,7 +3768,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3791,7 +3792,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>57</v>
       </c>
@@ -3809,7 +3810,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3829,7 +3830,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3849,7 +3850,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3889,7 +3890,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -3909,7 +3910,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3929,7 +3930,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="49"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3949,7 +3950,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3969,7 +3970,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3989,7 +3990,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4009,7 +4010,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4029,7 +4030,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4053,7 +4054,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>65</v>
       </c>
@@ -4071,7 +4072,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4091,7 +4092,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4111,7 +4112,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4131,7 +4132,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4151,7 +4152,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4171,7 +4172,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4191,7 +4192,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4211,7 +4212,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4231,7 +4232,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4251,7 +4252,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4271,7 +4272,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4291,7 +4292,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4315,7 +4316,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>67</v>
       </c>
@@ -4333,7 +4334,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4353,7 +4354,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4373,7 +4374,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4393,7 +4394,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4413,7 +4414,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4433,7 +4434,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4453,7 +4454,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4473,7 +4474,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4493,7 +4494,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4513,7 +4514,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4533,7 +4534,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4553,7 +4554,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>80</v>
       </c>
@@ -4597,7 +4598,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4617,7 +4618,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4637,7 +4638,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4681,7 +4682,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4701,7 +4702,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4721,7 +4722,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
@@ -4741,7 +4742,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -4761,7 +4762,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -4781,7 +4782,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -4801,7 +4802,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -4821,15 +4822,19 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>5</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
@@ -4841,7 +4846,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -4859,29 +4864,39 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45322</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="B89" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="39"/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="49">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45351</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -4893,9 +4908,11 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="49">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45382</v>
       </c>
@@ -4913,7 +4930,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45412</v>
       </c>
@@ -4931,7 +4948,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45443</v>
       </c>
@@ -4949,7 +4966,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45473</v>
       </c>
@@ -4967,7 +4984,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45504</v>
       </c>
@@ -4985,7 +5002,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45535</v>
       </c>
@@ -5003,7 +5020,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45565</v>
       </c>
@@ -5021,7 +5038,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45596</v>
       </c>
@@ -5039,7 +5056,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5055,7 +5072,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5071,7 +5088,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5087,7 +5104,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5103,7 +5120,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5119,7 +5136,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5135,7 +5152,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5151,7 +5168,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5167,7 +5184,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5183,7 +5200,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5199,7 +5216,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5215,7 +5232,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5231,7 +5248,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5247,7 +5264,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5263,7 +5280,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5279,7 +5296,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5295,7 +5312,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5311,7 +5328,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5327,7 +5344,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5343,7 +5360,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5359,7 +5376,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5375,7 +5392,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5391,7 +5408,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5407,7 +5424,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5423,7 +5440,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5439,7 +5456,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5455,7 +5472,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5471,7 +5488,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5487,7 +5504,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5503,7 +5520,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5519,7 +5536,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5535,7 +5552,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5551,7 +5568,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5567,7 +5584,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5583,7 +5600,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5599,7 +5616,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5615,7 +5632,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5631,7 +5648,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5647,7 +5664,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5663,7 +5680,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5679,7 +5696,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5695,7 +5712,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5711,7 +5728,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5727,7 +5744,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5743,7 +5760,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5759,7 +5776,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5775,7 +5792,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5791,7 +5808,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5807,7 +5824,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5823,7 +5840,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5839,7 +5856,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5855,7 +5872,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5871,7 +5888,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5887,7 +5904,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41"/>
       <c r="B152" s="15"/>
       <c r="C152" s="42"/>
@@ -5905,23 +5922,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5944,34 +5961,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5983,16 +6000,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6001,16 +6018,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6021,18 +6038,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6040,7 +6057,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6053,24 +6070,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6105,7 +6122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6129,7 +6146,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -6151,7 +6168,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6175,7 +6192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -6197,7 +6214,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -6219,7 +6236,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -6241,7 +6258,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -6265,7 +6282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -6287,7 +6304,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -6311,7 +6328,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6335,7 +6352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -6357,7 +6374,7 @@
         <v>43288</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -6381,7 +6398,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -6405,7 +6422,7 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -6425,7 +6442,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43497</v>
       </c>
@@ -6447,7 +6464,7 @@
         <v>43510</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>48</v>
@@ -6469,7 +6486,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -6491,7 +6508,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>48</v>
@@ -6513,7 +6530,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43586</v>
       </c>
@@ -6537,7 +6554,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -6559,7 +6576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43709</v>
       </c>
@@ -6581,7 +6598,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43739</v>
       </c>
@@ -6605,7 +6622,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>48</v>
@@ -6627,7 +6644,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43770</v>
       </c>
@@ -6651,7 +6668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43800</v>
       </c>
@@ -6675,7 +6692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43831</v>
       </c>
@@ -6699,7 +6716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>45</v>
@@ -6721,7 +6738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>61</v>
@@ -6741,7 +6758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -6765,7 +6782,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -6789,7 +6806,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44075</v>
       </c>
@@ -6813,7 +6830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -6835,7 +6852,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44105</v>
       </c>
@@ -6859,7 +6876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44197</v>
       </c>
@@ -6883,7 +6900,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44228</v>
       </c>
@@ -6905,7 +6922,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>48</v>
@@ -6927,7 +6944,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -6951,7 +6968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -6971,7 +6988,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>48</v>
@@ -6993,7 +7010,7 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44621</v>
       </c>
@@ -7015,7 +7032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44682</v>
       </c>
@@ -7039,7 +7056,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44774</v>
       </c>
@@ -7061,7 +7078,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>71</v>
@@ -7083,7 +7100,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -7105,7 +7122,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44805</v>
       </c>
@@ -7129,7 +7146,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44835</v>
       </c>
@@ -7153,7 +7170,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>45</v>
@@ -7175,7 +7192,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -7197,7 +7214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44866</v>
       </c>
@@ -7221,7 +7238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -7243,7 +7260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44896</v>
       </c>
@@ -7267,7 +7284,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>80</v>
       </c>
@@ -7285,7 +7302,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44971</v>
       </c>
@@ -7309,7 +7326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -7329,7 +7346,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>45017</v>
       </c>
@@ -7353,7 +7370,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>45047</v>
       </c>
@@ -7377,7 +7394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>45</v>
@@ -7399,7 +7416,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>45078</v>
       </c>
@@ -7423,7 +7440,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>87</v>
@@ -7445,7 +7462,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>45</v>
@@ -7467,7 +7484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>45108</v>
       </c>
@@ -7491,7 +7508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>45</v>
@@ -7513,7 +7530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>45139</v>
       </c>
@@ -7537,7 +7554,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>92</v>
@@ -7559,7 +7576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>45</v>
@@ -7581,7 +7598,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45170</v>
       </c>
@@ -7605,7 +7622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -7627,7 +7644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>92</v>
@@ -7649,7 +7666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45200</v>
       </c>
@@ -7673,7 +7690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -7695,7 +7712,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45231</v>
       </c>
@@ -7719,7 +7736,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>92</v>
@@ -7741,7 +7758,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45264</v>
       </c>
@@ -7765,7 +7782,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>45</v>
@@ -7787,7 +7804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -7809,7 +7826,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -7831,7 +7848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7847,7 +7864,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7863,7 +7880,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7879,7 +7896,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7895,7 +7912,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7911,7 +7928,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7927,7 +7944,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7943,7 +7960,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7959,7 +7976,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7975,7 +7992,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7991,7 +8008,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8007,7 +8024,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8023,7 +8040,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8039,7 +8056,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8055,7 +8072,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8071,7 +8088,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8087,7 +8104,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8103,7 +8120,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8119,7 +8136,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8135,7 +8152,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8151,7 +8168,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8167,7 +8184,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8183,7 +8200,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8199,7 +8216,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8215,7 +8232,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8231,7 +8248,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8247,7 +8264,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8263,7 +8280,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8279,7 +8296,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8295,7 +8312,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8311,7 +8328,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8327,7 +8344,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8343,7 +8360,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8359,7 +8376,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8375,7 +8392,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8391,7 +8408,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8407,7 +8424,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8423,7 +8440,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8439,7 +8456,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8455,7 +8472,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8471,7 +8488,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8487,7 +8504,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8503,7 +8520,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8519,7 +8536,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8535,7 +8552,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8551,7 +8568,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8567,7 +8584,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8583,7 +8600,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8599,7 +8616,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8615,7 +8632,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8631,7 +8648,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8647,7 +8664,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -8678,10 +8695,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8704,28 +8721,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8738,7 +8755,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8767,7 +8784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>104.958</v>
       </c>
@@ -8791,17 +8808,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -8825,10 +8842,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>155</v>
+        <v>151.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -8856,7 +8873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8882,7 +8899,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8908,7 +8925,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8934,7 +8951,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8960,7 +8977,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8986,7 +9003,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9012,7 +9029,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9038,7 +9055,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9058,7 +9075,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9078,7 +9095,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9098,7 +9115,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9119,7 +9136,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9140,7 +9157,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9161,7 +9178,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9182,7 +9199,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9203,7 +9220,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9224,7 +9241,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9245,7 +9262,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9266,7 +9283,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9287,7 +9304,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9308,7 +9325,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9329,7 +9346,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9350,7 +9367,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9371,7 +9388,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9392,7 +9409,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9413,7 +9430,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9434,7 +9451,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9455,7 +9472,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9476,7 +9493,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9497,7 +9514,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9518,7 +9535,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9527,7 +9544,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9536,7 +9553,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9545,7 +9562,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9554,7 +9571,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9563,7 +9580,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9572,7 +9589,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9581,7 +9598,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9590,7 +9607,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9599,7 +9616,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9608,7 +9625,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9617,7 +9634,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9626,7 +9643,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9635,7 +9652,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9644,7 +9661,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9653,7 +9670,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9662,7 +9679,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9671,7 +9688,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9680,7 +9697,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9689,7 +9706,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9698,7 +9715,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9707,7 +9724,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9716,7 +9733,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9725,7 +9742,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9734,7 +9751,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9743,7 +9760,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9752,7 +9769,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9761,7 +9778,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9770,7 +9787,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9779,7 +9796,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
